--- a/rep.xlsx
+++ b/rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E46524-0796-4656-A8C3-30971B4AA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A311C69-06D0-4780-B690-945D3478A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AE7C4EA2-25DA-4F74-8525-8AAD1866E990}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="751">
   <si>
     <t>Key</t>
   </si>
@@ -1023,12 +1023,6 @@
   </si>
   <si>
     <t>E12</t>
-  </si>
-  <si>
-    <t>東淀川区西淡路1-1-28 ライオンズマンション</t>
-  </si>
-  <si>
-    <t>E13</t>
   </si>
   <si>
     <t>平野区流町1丁目5-25 レクシア平野DUO</t>
@@ -2667,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B12B7-51CD-40BD-A309-54C6566E9039}">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,11 +4426,11 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B126" t="e">
-        <v>#N/A</v>
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
       </c>
       <c r="C126" t="s">
         <v>329</v>
@@ -4478,13 +4472,13 @@
         <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,7 +4486,7 @@
         <v>305</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C130" t="s">
         <v>338</v>
@@ -4506,7 +4500,7 @@
         <v>305</v>
       </c>
       <c r="B131" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C131" t="s">
         <v>340</v>
@@ -4534,13 +4528,13 @@
         <v>305</v>
       </c>
       <c r="B133" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4548,7 +4542,7 @@
         <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s">
         <v>347</v>
@@ -4562,13 +4556,13 @@
         <v>305</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C135" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,13 +4570,13 @@
         <v>305</v>
       </c>
       <c r="B136" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,27 +4584,27 @@
         <v>305</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,7 +4612,7 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C139" t="s">
         <v>361</v>
@@ -4632,7 +4626,7 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C140" t="s">
         <v>363</v>
@@ -4646,7 +4640,7 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C141" t="s">
         <v>365</v>
@@ -4660,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C142" t="s">
         <v>367</v>
@@ -4674,7 +4668,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C143" t="s">
         <v>369</v>
@@ -4688,7 +4682,7 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
         <v>371</v>
@@ -4702,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C145" t="s">
         <v>373</v>
@@ -4716,7 +4710,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s">
         <v>375</v>
@@ -4730,7 +4724,7 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C147" t="s">
         <v>377</v>
@@ -4744,7 +4738,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C148" t="s">
         <v>379</v>
@@ -4758,13 +4752,13 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C149" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D149" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="B150" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C150" t="s">
         <v>384</v>
@@ -4786,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C151" t="s">
         <v>386</v>
@@ -4800,7 +4794,7 @@
         <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C152" t="s">
         <v>388</v>
@@ -4814,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
         <v>390</v>
@@ -4828,13 +4822,13 @@
         <v>18</v>
       </c>
       <c r="B154" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C154" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D154" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,7 +4836,7 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C155" t="s">
         <v>395</v>
@@ -4856,7 +4850,7 @@
         <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C156" t="s">
         <v>397</v>
@@ -4870,13 +4864,13 @@
         <v>18</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D157" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="B158" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C158" t="s">
         <v>402</v>
@@ -4898,7 +4892,7 @@
         <v>18</v>
       </c>
       <c r="B159" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C159" t="s">
         <v>404</v>
@@ -4912,13 +4906,13 @@
         <v>18</v>
       </c>
       <c r="B160" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D160" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,13 +4920,13 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C161" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D161" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4940,7 +4934,7 @@
         <v>18</v>
       </c>
       <c r="B162" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s">
         <v>412</v>
@@ -4968,13 +4962,13 @@
         <v>18</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D164" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,7 +4976,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
         <v>419</v>
@@ -4996,13 +4990,13 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C166" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D166" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,13 +5004,13 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C167" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D167" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,13 +5018,13 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C168" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D168" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,13 +5032,13 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C169" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D169" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,13 +5046,13 @@
         <v>18</v>
       </c>
       <c r="B170" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C170" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D170" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,7 +5060,7 @@
         <v>18</v>
       </c>
       <c r="B171" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s">
         <v>436</v>
@@ -5080,7 +5074,7 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C172" t="s">
         <v>438</v>
@@ -5094,7 +5088,7 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C173" t="s">
         <v>440</v>
@@ -5108,13 +5102,13 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C174" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D174" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,13 +5116,13 @@
         <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,13 +5130,13 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,7 +5144,7 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C177" t="s">
         <v>451</v>
@@ -5164,13 +5158,13 @@
         <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,13 +5172,13 @@
         <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,13 +5186,13 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D180" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,63 +5200,63 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C181" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>18</v>
+        <v>465</v>
       </c>
       <c r="B182" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C182" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D182" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B183" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C183" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D183" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B184" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C184" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D184" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B185" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C185" t="s">
         <v>475</v>
@@ -5273,24 +5267,24 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B186" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C186" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D186" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B187" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C187" t="s">
         <v>480</v>
@@ -5301,24 +5295,24 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B188" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C188" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D188" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B189" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C189" t="s">
         <v>486</v>
@@ -5329,10 +5323,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B190" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C190" t="s">
         <v>488</v>
@@ -5343,108 +5337,108 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B191" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D191" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C192" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D192" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B193" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C193" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D193" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B194" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C194" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D194" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B195" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C195" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D195" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B196" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C196" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D196" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C197" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D197" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>484</v>
+        <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>510</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
         <v>511</v>
@@ -5528,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s">
         <v>523</v>
@@ -5556,49 +5550,49 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="C206" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D206" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>530</v>
       </c>
       <c r="B207" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C207" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D207" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B208" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C208" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D208" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B209" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C209" t="s">
         <v>537</v>
@@ -5609,30 +5603,30 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B210" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C210" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D210" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>532</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D211" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,13 +5634,13 @@
         <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C212" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D212" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,13 +5648,13 @@
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C213" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D213" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,13 +5662,13 @@
         <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C214" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D214" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,7 +5676,7 @@
         <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C215" t="s">
         <v>554</v>
@@ -5696,7 +5690,7 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C216" t="s">
         <v>556</v>
@@ -5710,7 +5704,7 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C217" t="s">
         <v>558</v>
@@ -5724,13 +5718,13 @@
         <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C218" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D218" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,7 +5732,7 @@
         <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>562</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
         <v>563</v>
@@ -5819,24 +5813,24 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>575</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>576</v>
       </c>
       <c r="C225" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D225" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B226" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C226" t="s">
         <v>579</v>
@@ -5847,94 +5841,94 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B227" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C227" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D227" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B228" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C228" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D228" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B229" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C229" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D229" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="B230" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C230" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D230" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B231" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C231" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D231" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B232" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C232" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D232" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>592</v>
+        <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>599</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
         <v>600</v>
@@ -5962,35 +5956,35 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>604</v>
       </c>
       <c r="C235" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D235" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>607</v>
       </c>
       <c r="B236" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C236" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D236" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B237" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C237" t="s">
         <v>611</v>
@@ -6001,10 +5995,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B238" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C238" t="s">
         <v>613</v>
@@ -6015,24 +6009,24 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B239" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C239" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D239" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B240" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C240" t="s">
         <v>618</v>
@@ -6043,30 +6037,30 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B241" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C241" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D241" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>609</v>
+        <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D242" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,13 +6068,13 @@
         <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C243" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D243" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,7 +6082,7 @@
         <v>20</v>
       </c>
       <c r="B244" t="s">
-        <v>628</v>
+        <v>21</v>
       </c>
       <c r="C244" t="s">
         <v>629</v>
@@ -6113,38 +6107,38 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>633</v>
       </c>
       <c r="B246" t="s">
-        <v>21</v>
+        <v>634</v>
       </c>
       <c r="C246" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D246" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B247" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C247" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D247" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B248" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C248" t="s">
         <v>640</v>
@@ -6155,44 +6149,44 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B249" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C249" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D249" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B250" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C250" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D250" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>644</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C251" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D251" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C252" t="s">
         <v>652</v>
@@ -6214,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C253" t="s">
         <v>654</v>
@@ -6228,7 +6222,7 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>651</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>656</v>
@@ -6239,16 +6233,16 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>658</v>
       </c>
       <c r="C255" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D255" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C256" t="s">
         <v>661</v>
@@ -6267,24 +6261,24 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>663</v>
       </c>
       <c r="B257" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C257" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D257" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>665</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>666</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
         <v>667</v>
@@ -6298,35 +6292,35 @@
         <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>669</v>
       </c>
       <c r="C259" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D259" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>672</v>
       </c>
       <c r="B260" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C260" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D260" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B261" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C261" t="s">
         <v>676</v>
@@ -6337,66 +6331,66 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B262" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C262" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D262" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B263" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D263" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B264" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C264" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D264" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B265" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C265" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D265" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B266" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C266" t="s">
         <v>692</v>
@@ -6407,30 +6401,30 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B267" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C267" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D267" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>687</v>
+        <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C268" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D268" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,7 +6432,7 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C269" t="s">
         <v>700</v>
@@ -6449,41 +6443,41 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>15</v>
+        <v>702</v>
       </c>
       <c r="B270" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C270" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D270" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>702</v>
+      </c>
+      <c r="B271" t="s">
+        <v>703</v>
+      </c>
+      <c r="C271" t="s">
         <v>704</v>
       </c>
-      <c r="B271" t="s">
-        <v>705</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>706</v>
-      </c>
-      <c r="D271" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B272" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C272" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D272" t="s">
         <v>708</v>
@@ -6491,80 +6485,80 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B273" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C273" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D273" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B274" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C274" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D274" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B275" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C275" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D275" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B276" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C276" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D276" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B277" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C277" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D277" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B278" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C278" t="s">
         <v>727</v>
@@ -6575,100 +6569,86 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B279" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C279" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D279" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B280" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C280" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D280" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B281" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C281" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D281" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B282" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C282" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D282" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B283" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C283" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D283" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B284" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C284" t="s">
         <v>749</v>
       </c>
       <c r="D284" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>747</v>
-      </c>
-      <c r="B285" t="s">
-        <v>748</v>
-      </c>
-      <c r="C285" t="s">
-        <v>751</v>
-      </c>
-      <c r="D285" t="s">
-        <v>752</v>
       </c>
     </row>
   </sheetData>
